--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T09:39:16+00:00</t>
+    <t>2025-08-01T06:15:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T06:15:10+00:00</t>
+    <t>2025-08-11T13:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:26+00:00</t>
+    <t>2025-08-11T13:13:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T13:13:41+00:00</t>
+    <t>2025-08-11T17:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-11T17:10:25+00:00</t>
+    <t>2025-09-16T13:34:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T13:34:10+00:00</t>
+    <t>2025-09-18T08:13:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T08:13:56+00:00</t>
+    <t>2025-09-18T15:39:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:39:47+00:00</t>
+    <t>2025-09-18T15:54:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T15:54:11+00:00</t>
+    <t>2025-10-08T12:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil générique créé à partir de FrPractitioner dans le contexte de l'Annuaire Santé pour décrire les données d'identification pérennes d’une personne physique, qui travaille en tant que professionnel (professionnel enregistré dans RPPS), personnel autorisé ou personnel d’établissement, dans les domaines sanitaire, médico-social et social.</t>
+    <t>Profil générique créé à partir de FrPractitioner dans le contexte de l'Annuaire Santé pour décrire les données liées à l'exercice professionnel d'un professionnel (professions à ordre, professions sans ordre, professionnels à rôle).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1861,7 +1861,7 @@
   </si>
   <si>
     <t>Cette ressource est-elle active?
-true  par défaut; false pour  indiquer que la ressource a été supprimés</t>
+true  par défaut; false pour indiquer que la ressource a été supprimée</t>
   </si>
   <si>
     <t>Whether this practitioner's record is in active use.</t>
@@ -4437,7 +4437,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>132</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>221</v>
       </c>
@@ -11542,7 +11542,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>320</v>
       </c>
@@ -15423,7 +15423,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>367</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" hidden="true">
+    <row r="118">
       <c r="A118" t="s" s="2">
         <v>412</v>
       </c>
@@ -22284,7 +22284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="140" hidden="true">
+    <row r="140">
       <c r="A140" t="s" s="2">
         <v>545</v>
       </c>
@@ -23503,7 +23503,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="149" hidden="true">
+    <row r="149">
       <c r="A149" t="s" s="2">
         <v>564</v>
       </c>
@@ -25941,7 +25941,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="167" hidden="true">
+    <row r="167">
       <c r="A167" t="s" s="2">
         <v>592</v>
       </c>
@@ -26080,7 +26080,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="168" hidden="true">
+    <row r="168">
       <c r="A168" t="s" s="2">
         <v>600</v>
       </c>
@@ -26892,7 +26892,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>634</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>644</v>
       </c>
@@ -27295,7 +27295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="177" hidden="true">
+    <row r="177">
       <c r="A177" t="s" s="2">
         <v>663</v>
       </c>
@@ -35333,7 +35333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>816</v>
       </c>
@@ -35875,7 +35875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="241" hidden="true">
+    <row r="241">
       <c r="A241" t="s" s="2">
         <v>821</v>
       </c>
@@ -37888,7 +37888,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="256" hidden="true">
+    <row r="256">
       <c r="A256" t="s" s="2">
         <v>899</v>
       </c>
@@ -41368,7 +41368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="282" hidden="true">
+    <row r="282">
       <c r="A282" t="s" s="2">
         <v>951</v>
       </c>
@@ -41505,7 +41505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="283" hidden="true">
+    <row r="283">
       <c r="A283" t="s" s="2">
         <v>954</v>
       </c>
@@ -43798,7 +43798,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="300" hidden="true">
+    <row r="300">
       <c r="A300" t="s" s="2">
         <v>987</v>
       </c>
@@ -43935,7 +43935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="301" hidden="true">
+    <row r="301">
       <c r="A301" t="s" s="2">
         <v>992</v>
       </c>
@@ -44209,7 +44209,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="303" hidden="true">
+    <row r="303">
       <c r="A303" t="s" s="2">
         <v>996</v>
       </c>
@@ -46228,7 +46228,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="318" hidden="true">
+    <row r="318">
       <c r="A318" t="s" s="2">
         <v>1018</v>
       </c>
@@ -46365,7 +46365,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="319" hidden="true">
+    <row r="319">
       <c r="A319" t="s" s="2">
         <v>1023</v>
       </c>
@@ -47447,7 +47447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="327" hidden="true">
+    <row r="327">
       <c r="A327" t="s" s="2">
         <v>1037</v>
       </c>
@@ -47584,12 +47584,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AU327">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14004" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14004" uniqueCount="1046">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:14:02+00:00</t>
+    <t>2025-10-08T12:28:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2725,9 +2725,6 @@
   </si>
   <si>
     <t>Often, specific identities are assigned for the qualification.</t>
-  </si>
-  <si>
-    <t>Diplome.numeroDiplome</t>
   </si>
   <si>
     <t>.playingEntity.playingRole[classCode=QUAL].id</t>
@@ -37064,22 +37061,22 @@
         <v>84</v>
       </c>
       <c r="AN249" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AO249" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AP249" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AQ249" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AR249" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AS249" t="s" s="2">
         <v>874</v>
-      </c>
-      <c r="AO249" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AP249" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AQ249" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AR249" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AS249" t="s" s="2">
-        <v>875</v>
       </c>
       <c r="AT249" t="s" s="2">
         <v>84</v>
@@ -37090,10 +37087,10 @@
     </row>
     <row r="250" hidden="true">
       <c r="A250" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -37119,10 +37116,10 @@
         <v>245</v>
       </c>
       <c r="L250" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M250" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="M250" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="N250" s="2"/>
       <c r="O250" s="2"/>
@@ -37152,11 +37149,11 @@
         <v>177</v>
       </c>
       <c r="Y250" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="Z250" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="Z250" t="s" s="2">
-        <v>880</v>
-      </c>
       <c r="AA250" t="s" s="2">
         <v>84</v>
       </c>
@@ -37173,7 +37170,7 @@
         <v>84</v>
       </c>
       <c r="AF250" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AG250" t="s" s="2">
         <v>102</v>
@@ -37197,7 +37194,7 @@
         <v>84</v>
       </c>
       <c r="AN250" t="s" s="2">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="AO250" t="s" s="2">
         <v>84</v>
@@ -37215,7 +37212,7 @@
         <v>861</v>
       </c>
       <c r="AT250" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AU250" t="s" s="2">
         <v>84</v>
@@ -37223,10 +37220,10 @@
     </row>
     <row r="251" hidden="true">
       <c r="A251" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C251" s="2"/>
       <c r="D251" t="s" s="2">
@@ -37252,14 +37249,14 @@
         <v>265</v>
       </c>
       <c r="L251" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M251" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="M251" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P251" t="s" s="2">
         <v>84</v>
@@ -37308,7 +37305,7 @@
         <v>84</v>
       </c>
       <c r="AF251" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG251" t="s" s="2">
         <v>85</v>
@@ -37347,10 +37344,10 @@
         <v>84</v>
       </c>
       <c r="AS251" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AT251" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="AT251" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="AU251" t="s" s="2">
         <v>84</v>
@@ -37358,10 +37355,10 @@
     </row>
     <row r="252" hidden="true">
       <c r="A252" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -37387,10 +37384,10 @@
         <v>537</v>
       </c>
       <c r="L252" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="M252" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="M252" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
@@ -37441,7 +37438,7 @@
         <v>84</v>
       </c>
       <c r="AF252" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG252" t="s" s="2">
         <v>85</v>
@@ -37480,7 +37477,7 @@
         <v>84</v>
       </c>
       <c r="AS252" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AT252" t="s" s="2">
         <v>84</v>
@@ -37491,13 +37488,13 @@
     </row>
     <row r="253" hidden="true">
       <c r="A253" t="s" s="2">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B253" t="s" s="2">
         <v>855</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D253" t="s" s="2">
         <v>84</v>
@@ -37522,7 +37519,7 @@
         <v>856</v>
       </c>
       <c r="L253" t="s" s="2">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M253" t="s" s="2">
         <v>858</v>
@@ -37600,7 +37597,7 @@
         <v>84</v>
       </c>
       <c r="AN253" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="AO253" t="s" s="2">
         <v>84</v>
@@ -37626,7 +37623,7 @@
     </row>
     <row r="254" hidden="true">
       <c r="A254" t="s" s="2">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B254" t="s" s="2">
         <v>863</v>
@@ -37759,7 +37756,7 @@
     </row>
     <row r="255" hidden="true">
       <c r="A255" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B255" t="s" s="2">
         <v>864</v>
@@ -37890,13 +37887,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B256" t="s" s="2">
         <v>864</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>84</v>
@@ -37918,13 +37915,13 @@
         <v>84</v>
       </c>
       <c r="K256" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="L256" t="s" s="2">
         <v>901</v>
       </c>
-      <c r="L256" t="s" s="2">
+      <c r="M256" t="s" s="2">
         <v>902</v>
-      </c>
-      <c r="M256" t="s" s="2">
-        <v>903</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" s="2"/>
@@ -38025,10 +38022,10 @@
     </row>
     <row r="257" hidden="true">
       <c r="A257" t="s" s="2">
+        <v>903</v>
+      </c>
+      <c r="B257" t="s" s="2">
         <v>904</v>
-      </c>
-      <c r="B257" t="s" s="2">
-        <v>905</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -38158,10 +38155,10 @@
     </row>
     <row r="258" hidden="true">
       <c r="A258" t="s" s="2">
+        <v>905</v>
+      </c>
+      <c r="B258" t="s" s="2">
         <v>906</v>
-      </c>
-      <c r="B258" t="s" s="2">
-        <v>907</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -38293,13 +38290,13 @@
     </row>
     <row r="259" hidden="true">
       <c r="A259" t="s" s="2">
+        <v>907</v>
+      </c>
+      <c r="B259" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="C259" t="s" s="2">
         <v>908</v>
-      </c>
-      <c r="B259" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="C259" t="s" s="2">
-        <v>909</v>
       </c>
       <c r="D259" t="s" s="2">
         <v>84</v>
@@ -38402,7 +38399,7 @@
         <v>84</v>
       </c>
       <c r="AN259" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AO259" t="s" s="2">
         <v>84</v>
@@ -38428,10 +38425,10 @@
     </row>
     <row r="260" hidden="true">
       <c r="A260" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="B260" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="B260" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -38561,10 +38558,10 @@
     </row>
     <row r="261" hidden="true">
       <c r="A261" t="s" s="2">
+        <v>912</v>
+      </c>
+      <c r="B261" t="s" s="2">
         <v>913</v>
-      </c>
-      <c r="B261" t="s" s="2">
-        <v>914</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" t="s" s="2">
@@ -38694,10 +38691,10 @@
     </row>
     <row r="262" hidden="true">
       <c r="A262" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="B262" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="B262" t="s" s="2">
-        <v>916</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -38737,7 +38734,7 @@
       </c>
       <c r="Q262" s="2"/>
       <c r="R262" t="s" s="2">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="S262" t="s" s="2">
         <v>84</v>
@@ -38829,10 +38826,10 @@
     </row>
     <row r="263" hidden="true">
       <c r="A263" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="B263" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="B263" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -38892,7 +38889,7 @@
       </c>
       <c r="Y263" s="2"/>
       <c r="Z263" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="AA263" t="s" s="2">
         <v>84</v>
@@ -38960,13 +38957,13 @@
     </row>
     <row r="264" hidden="true">
       <c r="A264" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="B264" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="C264" t="s" s="2">
         <v>920</v>
-      </c>
-      <c r="B264" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="C264" t="s" s="2">
-        <v>921</v>
       </c>
       <c r="D264" t="s" s="2">
         <v>84</v>
@@ -39069,7 +39066,7 @@
         <v>84</v>
       </c>
       <c r="AN264" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="AO264" t="s" s="2">
         <v>84</v>
@@ -39095,10 +39092,10 @@
     </row>
     <row r="265" hidden="true">
       <c r="A265" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -39228,10 +39225,10 @@
     </row>
     <row r="266" hidden="true">
       <c r="A266" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -39361,10 +39358,10 @@
     </row>
     <row r="267" hidden="true">
       <c r="A267" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -39404,7 +39401,7 @@
       </c>
       <c r="Q267" s="2"/>
       <c r="R267" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="S267" t="s" s="2">
         <v>84</v>
@@ -39496,10 +39493,10 @@
     </row>
     <row r="268" hidden="true">
       <c r="A268" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" t="s" s="2">
@@ -39559,7 +39556,7 @@
       </c>
       <c r="Y268" s="2"/>
       <c r="Z268" t="s" s="2">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="AA268" t="s" s="2">
         <v>84</v>
@@ -39627,13 +39624,13 @@
     </row>
     <row r="269" hidden="true">
       <c r="A269" t="s" s="2">
+        <v>927</v>
+      </c>
+      <c r="B269" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="C269" t="s" s="2">
         <v>928</v>
-      </c>
-      <c r="B269" t="s" s="2">
-        <v>907</v>
-      </c>
-      <c r="C269" t="s" s="2">
-        <v>929</v>
       </c>
       <c r="D269" t="s" s="2">
         <v>84</v>
@@ -39736,7 +39733,7 @@
         <v>84</v>
       </c>
       <c r="AN269" t="s" s="2">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="AO269" t="s" s="2">
         <v>84</v>
@@ -39762,10 +39759,10 @@
     </row>
     <row r="270" hidden="true">
       <c r="A270" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -39895,10 +39892,10 @@
     </row>
     <row r="271" hidden="true">
       <c r="A271" t="s" s="2">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -40028,10 +40025,10 @@
     </row>
     <row r="272" hidden="true">
       <c r="A272" t="s" s="2">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -40071,7 +40068,7 @@
       </c>
       <c r="Q272" s="2"/>
       <c r="R272" t="s" s="2">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="S272" t="s" s="2">
         <v>84</v>
@@ -40163,10 +40160,10 @@
     </row>
     <row r="273" hidden="true">
       <c r="A273" t="s" s="2">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" t="s" s="2">
@@ -40226,7 +40223,7 @@
       </c>
       <c r="Y273" s="2"/>
       <c r="Z273" t="s" s="2">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="AA273" t="s" s="2">
         <v>84</v>
@@ -40294,10 +40291,10 @@
     </row>
     <row r="274" hidden="true">
       <c r="A274" t="s" s="2">
+        <v>935</v>
+      </c>
+      <c r="B274" t="s" s="2">
         <v>936</v>
-      </c>
-      <c r="B274" t="s" s="2">
-        <v>937</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -40337,7 +40334,7 @@
       </c>
       <c r="Q274" s="2"/>
       <c r="R274" t="s" s="2">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="S274" t="s" s="2">
         <v>84</v>
@@ -40429,10 +40426,10 @@
     </row>
     <row r="275" hidden="true">
       <c r="A275" t="s" s="2">
+        <v>938</v>
+      </c>
+      <c r="B275" t="s" s="2">
         <v>939</v>
-      </c>
-      <c r="B275" t="s" s="2">
-        <v>940</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -40562,7 +40559,7 @@
     </row>
     <row r="276" hidden="true">
       <c r="A276" t="s" s="2">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B276" t="s" s="2">
         <v>865</v>
@@ -40699,7 +40696,7 @@
     </row>
     <row r="277" hidden="true">
       <c r="A277" t="s" s="2">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B277" t="s" s="2">
         <v>870</v>
@@ -40823,7 +40820,7 @@
         <v>84</v>
       </c>
       <c r="AS277" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AT277" t="s" s="2">
         <v>84</v>
@@ -40834,10 +40831,10 @@
     </row>
     <row r="278" hidden="true">
       <c r="A278" t="s" s="2">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C278" s="2"/>
       <c r="D278" t="s" s="2">
@@ -40863,10 +40860,10 @@
         <v>245</v>
       </c>
       <c r="L278" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M278" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="M278" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="N278" s="2"/>
       <c r="O278" s="2"/>
@@ -40896,11 +40893,11 @@
         <v>177</v>
       </c>
       <c r="Y278" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="Z278" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="Z278" t="s" s="2">
-        <v>880</v>
-      </c>
       <c r="AA278" t="s" s="2">
         <v>84</v>
       </c>
@@ -40917,7 +40914,7 @@
         <v>84</v>
       </c>
       <c r="AF278" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AG278" t="s" s="2">
         <v>102</v>
@@ -40959,7 +40956,7 @@
         <v>861</v>
       </c>
       <c r="AT278" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AU278" t="s" s="2">
         <v>84</v>
@@ -40967,10 +40964,10 @@
     </row>
     <row r="279" hidden="true">
       <c r="A279" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="B279" t="s" s="2">
         <v>944</v>
-      </c>
-      <c r="B279" t="s" s="2">
-        <v>945</v>
       </c>
       <c r="C279" s="2"/>
       <c r="D279" t="s" s="2">
@@ -41100,10 +41097,10 @@
     </row>
     <row r="280" hidden="true">
       <c r="A280" t="s" s="2">
+        <v>945</v>
+      </c>
+      <c r="B280" t="s" s="2">
         <v>946</v>
-      </c>
-      <c r="B280" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" t="s" s="2">
@@ -41235,10 +41232,10 @@
     </row>
     <row r="281" hidden="true">
       <c r="A281" t="s" s="2">
+        <v>947</v>
+      </c>
+      <c r="B281" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="B281" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" t="s" s="2">
@@ -41317,7 +41314,7 @@
         <v>84</v>
       </c>
       <c r="AE281" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF281" t="s" s="2">
         <v>459</v>
@@ -41370,13 +41367,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="B282" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C282" t="s" s="2">
         <v>951</v>
-      </c>
-      <c r="B282" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="C282" t="s" s="2">
-        <v>952</v>
       </c>
       <c r="D282" t="s" s="2">
         <v>84</v>
@@ -41439,7 +41436,7 @@
       </c>
       <c r="Y282" s="2"/>
       <c r="Z282" t="s" s="2">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="AA282" t="s" s="2">
         <v>84</v>
@@ -41507,13 +41504,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D283" t="s" s="2">
         <v>84</v>
@@ -41576,7 +41573,7 @@
       </c>
       <c r="Y283" s="2"/>
       <c r="Z283" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="AA283" t="s" s="2">
         <v>84</v>
@@ -41644,10 +41641,10 @@
     </row>
     <row r="284" hidden="true">
       <c r="A284" t="s" s="2">
+        <v>955</v>
+      </c>
+      <c r="B284" t="s" s="2">
         <v>956</v>
-      </c>
-      <c r="B284" t="s" s="2">
-        <v>957</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" t="s" s="2">
@@ -41781,10 +41778,10 @@
     </row>
     <row r="285" hidden="true">
       <c r="A285" t="s" s="2">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C285" s="2"/>
       <c r="D285" t="s" s="2">
@@ -41810,14 +41807,14 @@
         <v>265</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>84</v>
@@ -41866,7 +41863,7 @@
         <v>84</v>
       </c>
       <c r="AF285" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG285" t="s" s="2">
         <v>85</v>
@@ -41905,10 +41902,10 @@
         <v>84</v>
       </c>
       <c r="AS285" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AT285" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="AT285" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="AU285" t="s" s="2">
         <v>84</v>
@@ -41916,10 +41913,10 @@
     </row>
     <row r="286" hidden="true">
       <c r="A286" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="B286" t="s" s="2">
         <v>960</v>
-      </c>
-      <c r="B286" t="s" s="2">
-        <v>961</v>
       </c>
       <c r="C286" s="2"/>
       <c r="D286" t="s" s="2">
@@ -42049,10 +42046,10 @@
     </row>
     <row r="287" hidden="true">
       <c r="A287" t="s" s="2">
+        <v>961</v>
+      </c>
+      <c r="B287" t="s" s="2">
         <v>962</v>
-      </c>
-      <c r="B287" t="s" s="2">
-        <v>963</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" t="s" s="2">
@@ -42184,10 +42181,10 @@
     </row>
     <row r="288" hidden="true">
       <c r="A288" t="s" s="2">
+        <v>963</v>
+      </c>
+      <c r="B288" t="s" s="2">
         <v>964</v>
-      </c>
-      <c r="B288" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" t="s" s="2">
@@ -42213,7 +42210,7 @@
         <v>272</v>
       </c>
       <c r="L288" t="s" s="2">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="M288" t="s" s="2">
         <v>274</v>
@@ -42293,7 +42290,7 @@
         <v>84</v>
       </c>
       <c r="AN288" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="AO288" t="s" s="2">
         <v>84</v>
@@ -42319,10 +42316,10 @@
     </row>
     <row r="289" hidden="true">
       <c r="A289" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="B289" t="s" s="2">
         <v>968</v>
-      </c>
-      <c r="B289" t="s" s="2">
-        <v>969</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" t="s" s="2">
@@ -42348,7 +42345,7 @@
         <v>272</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="M289" t="s" s="2">
         <v>284</v>
@@ -42430,7 +42427,7 @@
         <v>84</v>
       </c>
       <c r="AN289" t="s" s="2">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="AO289" t="s" s="2">
         <v>84</v>
@@ -42456,10 +42453,10 @@
     </row>
     <row r="290" hidden="true">
       <c r="A290" t="s" s="2">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" t="s" s="2">
@@ -42482,13 +42479,13 @@
         <v>84</v>
       </c>
       <c r="K290" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="L290" t="s" s="2">
         <v>973</v>
       </c>
-      <c r="L290" t="s" s="2">
-        <v>974</v>
-      </c>
       <c r="M290" t="s" s="2">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" s="2"/>
@@ -42539,7 +42536,7 @@
         <v>84</v>
       </c>
       <c r="AF290" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG290" t="s" s="2">
         <v>85</v>
@@ -42563,7 +42560,7 @@
         <v>84</v>
       </c>
       <c r="AN290" t="s" s="2">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AO290" t="s" s="2">
         <v>84</v>
@@ -42578,7 +42575,7 @@
         <v>84</v>
       </c>
       <c r="AS290" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AT290" t="s" s="2">
         <v>84</v>
@@ -42589,13 +42586,13 @@
     </row>
     <row r="291" hidden="true">
       <c r="A291" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>855</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D291" t="s" s="2">
         <v>84</v>
@@ -42620,7 +42617,7 @@
         <v>856</v>
       </c>
       <c r="L291" t="s" s="2">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M291" t="s" s="2">
         <v>858</v>
@@ -42724,7 +42721,7 @@
     </row>
     <row r="292" hidden="true">
       <c r="A292" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>863</v>
@@ -42857,7 +42854,7 @@
     </row>
     <row r="293" hidden="true">
       <c r="A293" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>864</v>
@@ -42992,7 +42989,7 @@
     </row>
     <row r="294" hidden="true">
       <c r="A294" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B294" t="s" s="2">
         <v>865</v>
@@ -43129,7 +43126,7 @@
     </row>
     <row r="295" hidden="true">
       <c r="A295" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B295" t="s" s="2">
         <v>870</v>
@@ -43253,7 +43250,7 @@
         <v>84</v>
       </c>
       <c r="AS295" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AT295" t="s" s="2">
         <v>84</v>
@@ -43264,10 +43261,10 @@
     </row>
     <row r="296" hidden="true">
       <c r="A296" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" t="s" s="2">
@@ -43293,10 +43290,10 @@
         <v>245</v>
       </c>
       <c r="L296" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M296" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="M296" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -43326,11 +43323,11 @@
         <v>177</v>
       </c>
       <c r="Y296" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="Z296" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="Z296" t="s" s="2">
-        <v>880</v>
-      </c>
       <c r="AA296" t="s" s="2">
         <v>84</v>
       </c>
@@ -43347,7 +43344,7 @@
         <v>84</v>
       </c>
       <c r="AF296" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AG296" t="s" s="2">
         <v>102</v>
@@ -43389,7 +43386,7 @@
         <v>861</v>
       </c>
       <c r="AT296" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AU296" t="s" s="2">
         <v>84</v>
@@ -43397,10 +43394,10 @@
     </row>
     <row r="297" hidden="true">
       <c r="A297" t="s" s="2">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -43530,10 +43527,10 @@
     </row>
     <row r="298" hidden="true">
       <c r="A298" t="s" s="2">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -43665,10 +43662,10 @@
     </row>
     <row r="299" hidden="true">
       <c r="A299" t="s" s="2">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -43747,7 +43744,7 @@
         <v>84</v>
       </c>
       <c r="AE299" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF299" t="s" s="2">
         <v>459</v>
@@ -43800,13 +43797,13 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
+        <v>986</v>
+      </c>
+      <c r="B300" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C300" t="s" s="2">
         <v>987</v>
-      </c>
-      <c r="B300" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="C300" t="s" s="2">
-        <v>988</v>
       </c>
       <c r="D300" t="s" s="2">
         <v>84</v>
@@ -43831,7 +43828,7 @@
         <v>165</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="M300" t="s" s="2">
         <v>456</v>
@@ -43869,7 +43866,7 @@
       </c>
       <c r="Y300" s="2"/>
       <c r="Z300" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="AA300" t="s" s="2">
         <v>84</v>
@@ -43905,7 +43902,7 @@
         <v>84</v>
       </c>
       <c r="AL300" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AM300" t="s" s="2">
         <v>84</v>
@@ -43937,10 +43934,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C301" t="s" s="2">
         <v>357</v>
@@ -43968,7 +43965,7 @@
         <v>165</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M301" t="s" s="2">
         <v>456</v>
@@ -44042,7 +44039,7 @@
         <v>84</v>
       </c>
       <c r="AL301" t="s" s="2">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AM301" t="s" s="2">
         <v>84</v>
@@ -44074,10 +44071,10 @@
     </row>
     <row r="302" hidden="true">
       <c r="A302" t="s" s="2">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -44211,10 +44208,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -44240,14 +44237,14 @@
         <v>265</v>
       </c>
       <c r="L303" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M303" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="M303" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="N303" s="2"/>
       <c r="O303" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P303" t="s" s="2">
         <v>84</v>
@@ -44296,7 +44293,7 @@
         <v>84</v>
       </c>
       <c r="AF303" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG303" t="s" s="2">
         <v>85</v>
@@ -44335,10 +44332,10 @@
         <v>84</v>
       </c>
       <c r="AS303" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AT303" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="AT303" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="AU303" t="s" s="2">
         <v>84</v>
@@ -44346,10 +44343,10 @@
     </row>
     <row r="304" hidden="true">
       <c r="A304" t="s" s="2">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -44479,10 +44476,10 @@
     </row>
     <row r="305" hidden="true">
       <c r="A305" t="s" s="2">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -44614,10 +44611,10 @@
     </row>
     <row r="306" hidden="true">
       <c r="A306" t="s" s="2">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C306" s="2"/>
       <c r="D306" t="s" s="2">
@@ -44643,7 +44640,7 @@
         <v>272</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="M306" t="s" s="2">
         <v>274</v>
@@ -44717,7 +44714,7 @@
         <v>84</v>
       </c>
       <c r="AL306" t="s" s="2">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AM306" t="s" s="2">
         <v>84</v>
@@ -44749,10 +44746,10 @@
     </row>
     <row r="307" hidden="true">
       <c r="A307" t="s" s="2">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -44778,7 +44775,7 @@
         <v>272</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="M307" t="s" s="2">
         <v>284</v>
@@ -44854,7 +44851,7 @@
         <v>84</v>
       </c>
       <c r="AL307" t="s" s="2">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AM307" t="s" s="2">
         <v>84</v>
@@ -44886,10 +44883,10 @@
     </row>
     <row r="308" hidden="true">
       <c r="A308" t="s" s="2">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -44915,10 +44912,10 @@
         <v>537</v>
       </c>
       <c r="L308" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="M308" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="M308" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="N308" s="2"/>
       <c r="O308" s="2"/>
@@ -44969,7 +44966,7 @@
         <v>84</v>
       </c>
       <c r="AF308" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG308" t="s" s="2">
         <v>85</v>
@@ -45008,7 +45005,7 @@
         <v>84</v>
       </c>
       <c r="AS308" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AT308" t="s" s="2">
         <v>84</v>
@@ -45019,13 +45016,13 @@
     </row>
     <row r="309" hidden="true">
       <c r="A309" t="s" s="2">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B309" t="s" s="2">
         <v>855</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D309" t="s" s="2">
         <v>84</v>
@@ -45050,7 +45047,7 @@
         <v>856</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="M309" t="s" s="2">
         <v>858</v>
@@ -45154,7 +45151,7 @@
     </row>
     <row r="310" hidden="true">
       <c r="A310" t="s" s="2">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B310" t="s" s="2">
         <v>863</v>
@@ -45287,7 +45284,7 @@
     </row>
     <row r="311" hidden="true">
       <c r="A311" t="s" s="2">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B311" t="s" s="2">
         <v>864</v>
@@ -45422,7 +45419,7 @@
     </row>
     <row r="312" hidden="true">
       <c r="A312" t="s" s="2">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B312" t="s" s="2">
         <v>865</v>
@@ -45559,7 +45556,7 @@
     </row>
     <row r="313" hidden="true">
       <c r="A313" t="s" s="2">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>870</v>
@@ -45683,7 +45680,7 @@
         <v>84</v>
       </c>
       <c r="AS313" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AT313" t="s" s="2">
         <v>84</v>
@@ -45694,10 +45691,10 @@
     </row>
     <row r="314" hidden="true">
       <c r="A314" t="s" s="2">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -45723,10 +45720,10 @@
         <v>245</v>
       </c>
       <c r="L314" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="M314" t="s" s="2">
         <v>877</v>
-      </c>
-      <c r="M314" t="s" s="2">
-        <v>878</v>
       </c>
       <c r="N314" s="2"/>
       <c r="O314" s="2"/>
@@ -45756,11 +45753,11 @@
         <v>177</v>
       </c>
       <c r="Y314" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="Z314" t="s" s="2">
         <v>879</v>
       </c>
-      <c r="Z314" t="s" s="2">
-        <v>880</v>
-      </c>
       <c r="AA314" t="s" s="2">
         <v>84</v>
       </c>
@@ -45777,7 +45774,7 @@
         <v>84</v>
       </c>
       <c r="AF314" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="AG314" t="s" s="2">
         <v>102</v>
@@ -45792,7 +45789,7 @@
         <v>114</v>
       </c>
       <c r="AK314" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AL314" t="s" s="2">
         <v>84</v>
@@ -45819,7 +45816,7 @@
         <v>861</v>
       </c>
       <c r="AT314" t="s" s="2">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="AU314" t="s" s="2">
         <v>84</v>
@@ -45827,10 +45824,10 @@
     </row>
     <row r="315" hidden="true">
       <c r="A315" t="s" s="2">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -45960,10 +45957,10 @@
     </row>
     <row r="316" hidden="true">
       <c r="A316" t="s" s="2">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -46095,10 +46092,10 @@
     </row>
     <row r="317" hidden="true">
       <c r="A317" t="s" s="2">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -46177,7 +46174,7 @@
         <v>84</v>
       </c>
       <c r="AE317" t="s" s="2">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="AF317" t="s" s="2">
         <v>459</v>
@@ -46230,13 +46227,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
+        <v>1017</v>
+      </c>
+      <c r="B318" t="s" s="2">
+        <v>948</v>
+      </c>
+      <c r="C318" t="s" s="2">
         <v>1018</v>
-      </c>
-      <c r="B318" t="s" s="2">
-        <v>949</v>
-      </c>
-      <c r="C318" t="s" s="2">
-        <v>1019</v>
       </c>
       <c r="D318" t="s" s="2">
         <v>84</v>
@@ -46261,7 +46258,7 @@
         <v>165</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="M318" t="s" s="2">
         <v>456</v>
@@ -46299,7 +46296,7 @@
       </c>
       <c r="Y318" s="2"/>
       <c r="Z318" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA318" t="s" s="2">
         <v>84</v>
@@ -46332,7 +46329,7 @@
         <v>114</v>
       </c>
       <c r="AK318" t="s" s="2">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AL318" t="s" s="2">
         <v>84</v>
@@ -46367,13 +46364,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="D319" t="s" s="2">
         <v>84</v>
@@ -46398,7 +46395,7 @@
         <v>165</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M319" t="s" s="2">
         <v>456</v>
@@ -46436,7 +46433,7 @@
       </c>
       <c r="Y319" s="2"/>
       <c r="Z319" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="AA319" t="s" s="2">
         <v>84</v>
@@ -46504,10 +46501,10 @@
     </row>
     <row r="320" hidden="true">
       <c r="A320" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -46641,10 +46638,10 @@
     </row>
     <row r="321" hidden="true">
       <c r="A321" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -46670,14 +46667,14 @@
         <v>265</v>
       </c>
       <c r="L321" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="M321" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="M321" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="N321" s="2"/>
       <c r="O321" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="P321" t="s" s="2">
         <v>84</v>
@@ -46726,7 +46723,7 @@
         <v>84</v>
       </c>
       <c r="AF321" t="s" s="2">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="AG321" t="s" s="2">
         <v>85</v>
@@ -46765,10 +46762,10 @@
         <v>84</v>
       </c>
       <c r="AS321" t="s" s="2">
+        <v>886</v>
+      </c>
+      <c r="AT321" t="s" s="2">
         <v>887</v>
-      </c>
-      <c r="AT321" t="s" s="2">
-        <v>888</v>
       </c>
       <c r="AU321" t="s" s="2">
         <v>84</v>
@@ -46776,10 +46773,10 @@
     </row>
     <row r="322" hidden="true">
       <c r="A322" t="s" s="2">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -46909,10 +46906,10 @@
     </row>
     <row r="323" hidden="true">
       <c r="A323" t="s" s="2">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" t="s" s="2">
@@ -47044,10 +47041,10 @@
     </row>
     <row r="324" hidden="true">
       <c r="A324" t="s" s="2">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" t="s" s="2">
@@ -47073,7 +47070,7 @@
         <v>272</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="M324" t="s" s="2">
         <v>274</v>
@@ -47144,7 +47141,7 @@
         <v>114</v>
       </c>
       <c r="AK324" t="s" s="2">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="AL324" t="s" s="2">
         <v>84</v>
@@ -47179,10 +47176,10 @@
     </row>
     <row r="325" hidden="true">
       <c r="A325" t="s" s="2">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" t="s" s="2">
@@ -47208,7 +47205,7 @@
         <v>272</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="M325" t="s" s="2">
         <v>284</v>
@@ -47281,7 +47278,7 @@
         <v>114</v>
       </c>
       <c r="AK325" t="s" s="2">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="AL325" t="s" s="2">
         <v>84</v>
@@ -47316,10 +47313,10 @@
     </row>
     <row r="326" hidden="true">
       <c r="A326" t="s" s="2">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" t="s" s="2">
@@ -47345,10 +47342,10 @@
         <v>537</v>
       </c>
       <c r="L326" t="s" s="2">
+        <v>889</v>
+      </c>
+      <c r="M326" t="s" s="2">
         <v>890</v>
-      </c>
-      <c r="M326" t="s" s="2">
-        <v>891</v>
       </c>
       <c r="N326" s="2"/>
       <c r="O326" s="2"/>
@@ -47399,7 +47396,7 @@
         <v>84</v>
       </c>
       <c r="AF326" t="s" s="2">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="AG326" t="s" s="2">
         <v>85</v>
@@ -47438,7 +47435,7 @@
         <v>84</v>
       </c>
       <c r="AS326" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="AT326" t="s" s="2">
         <v>84</v>
@@ -47449,10 +47446,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" t="s" s="2">
@@ -47475,19 +47472,19 @@
         <v>84</v>
       </c>
       <c r="K327" t="s" s="2">
+        <v>1037</v>
+      </c>
+      <c r="L327" t="s" s="2">
         <v>1038</v>
       </c>
-      <c r="L327" t="s" s="2">
+      <c r="M327" t="s" s="2">
         <v>1039</v>
       </c>
-      <c r="M327" t="s" s="2">
+      <c r="N327" t="s" s="2">
         <v>1040</v>
       </c>
-      <c r="N327" t="s" s="2">
+      <c r="O327" t="s" s="2">
         <v>1041</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>1042</v>
       </c>
       <c r="P327" t="s" s="2">
         <v>84</v>
@@ -47516,7 +47513,7 @@
       </c>
       <c r="Y327" s="2"/>
       <c r="Z327" t="s" s="2">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="AA327" t="s" s="2">
         <v>84</v>
@@ -47534,7 +47531,7 @@
         <v>84</v>
       </c>
       <c r="AF327" t="s" s="2">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="AG327" t="s" s="2">
         <v>85</v>
@@ -47570,13 +47567,13 @@
         <v>84</v>
       </c>
       <c r="AR327" t="s" s="2">
+        <v>1043</v>
+      </c>
+      <c r="AS327" t="s" s="2">
         <v>1044</v>
       </c>
-      <c r="AS327" t="s" s="2">
+      <c r="AT327" t="s" s="2">
         <v>1045</v>
-      </c>
-      <c r="AT327" t="s" s="2">
-        <v>1046</v>
       </c>
       <c r="AU327" t="s" s="2">
         <v>84</v>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:28:03+00:00</t>
+    <t>2025-10-08T12:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-practitioner.xlsx
+++ b/main/ig/StructureDefinition-as-practitioner.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-08T12:56:25+00:00</t>
+    <t>2025-10-08T13:03:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
